--- a/Lab7/Lab7BOM.xlsx
+++ b/Lab7/Lab7BOM.xlsx
@@ -2,10 +2,10 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Documents\Github\EE 445L Fixed\trunk\Lab7\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ty\Github\445L\trunk\Lab7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -217,7 +217,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -293,13 +293,10 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -313,12 +310,21 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -638,7 +644,7 @@
   <dimension ref="A1:N20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -699,29 +705,29 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
       <c r="B3" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>6.3200000000000001E-3</v>
       </c>
       <c r="D3">
         <f>C3*J3</f>
         <v>0.40448000000000001</v>
       </c>
-      <c r="E3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="6" t="s">
+      <c r="F3" s="5" t="s">
         <v>22</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="I3" t="s">
@@ -747,23 +753,23 @@
       <c r="B4" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="5">
+      <c r="C4" s="4">
         <v>0.1454</v>
       </c>
       <c r="D4">
         <f>C4*J4</f>
         <v>9.3056000000000001</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>29</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="4" t="s">
         <v>27</v>
       </c>
       <c r="I4" t="s">
@@ -786,23 +792,23 @@
       <c r="B5" t="s">
         <v>37</v>
       </c>
-      <c r="C5" s="5">
+      <c r="C5" s="4">
         <v>0.15</v>
       </c>
       <c r="D5">
         <f>C5*J5</f>
         <v>2.4</v>
       </c>
-      <c r="E5" s="8" t="s">
+      <c r="E5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="6" t="s">
+      <c r="F5" s="5" t="s">
         <v>35</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="5" t="s">
+      <c r="H5" s="4" t="s">
         <v>34</v>
       </c>
       <c r="J5">
@@ -813,27 +819,27 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="C6" s="5">
+      <c r="C6" s="4">
         <v>2.3872</v>
       </c>
       <c r="D6">
         <f>(C6*J6)+(2*J6)</f>
         <v>8.7744</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="6" t="s">
+      <c r="F6" s="5" t="s">
         <v>57</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
       </c>
-      <c r="H6" t="s">
-        <v>23</v>
+      <c r="H6" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="J6">
         <v>2</v>
@@ -846,22 +852,22 @@
       <c r="A7" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="9">
         <v>13.99</v>
       </c>
-      <c r="D7" s="10">
+      <c r="D7" s="9">
         <v>13.99</v>
       </c>
       <c r="E7" t="s">
         <v>50</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="16">
         <v>31003</v>
       </c>
       <c r="G7" t="s">
         <v>51</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="15">
         <v>257209487</v>
       </c>
       <c r="J7">
@@ -881,7 +887,7 @@
       <c r="B8" t="s">
         <v>43</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="9">
         <v>5.7750000000000004</v>
       </c>
       <c r="D8">
@@ -914,11 +920,11 @@
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="9">
+      <c r="B10" s="11"/>
+      <c r="C10" s="8">
         <f>SUM(D3:D6)</f>
         <v>20.88448</v>
       </c>
@@ -959,23 +965,23 @@
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
     </row>
-    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="4">
+      <c r="B14" s="3">
         <v>1.99</v>
       </c>
       <c r="C14">
         <f>B14*D14</f>
-        <v>5.97</v>
-      </c>
-      <c r="D14" s="4">
-        <v>3</v>
-      </c>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
+        <v>1.99</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -991,9 +997,9 @@
       <c r="D15">
         <v>3</v>
       </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1009,9 +1015,9 @@
       <c r="D16">
         <v>64</v>
       </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1027,18 +1033,18 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="9">
+      <c r="B19" s="11"/>
+      <c r="C19" s="8">
         <f>C10+SUM(C14:C17)+C7+C8</f>
-        <v>88.73948</v>
+        <v>84.759479999999996</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1046,7 +1052,7 @@
         <v>52</v>
       </c>
       <c r="B20" s="12"/>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="10" t="s">
         <v>54</v>
       </c>
     </row>

--- a/Lab7/Lab7BOM.xlsx
+++ b/Lab7/Lab7BOM.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="16729"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ty\Github\445L\trunk\Lab7\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="7668"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="81">
   <si>
     <t>Component</t>
   </si>
@@ -213,15 +213,82 @@
   <si>
     <t>68 Pin Ribbon Cable ($2 Price of cable included in total)</t>
   </si>
+  <si>
+    <t>Cabinet</t>
+  </si>
+  <si>
+    <t>Ceramic mono, Z5U, -20/+80%, 0.1 uF</t>
+  </si>
+  <si>
+    <t>CAP</t>
+  </si>
+  <si>
+    <t>Jameco</t>
+  </si>
+  <si>
+    <t>Ceramic, Z5U, -20/+80%, 0.01 uF</t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>399-4188-ND</t>
+  </si>
+  <si>
+    <t>Ceramic, X7R, 20%, 1 uF</t>
+  </si>
+  <si>
+    <t>Ceramic, 22uF</t>
+  </si>
+  <si>
+    <t>Ceramic, 10pF</t>
+  </si>
+  <si>
+    <t>Tantalum, 16V, 10% 4.7 uF</t>
+  </si>
+  <si>
+    <t>CAP-Tant</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B3F tactile push button switch </t>
+  </si>
+  <si>
+    <t>SW</t>
+  </si>
+  <si>
+    <t>Omron Electronics</t>
+  </si>
+  <si>
+    <t>B3F-1052</t>
+  </si>
+  <si>
+    <t>SW405-ND</t>
+  </si>
+  <si>
+    <t>LM2937 3.3 V regulator TO220, 500mA</t>
+  </si>
+  <si>
+    <t>National</t>
+  </si>
+  <si>
+    <t>LM2937ET-3.3/NOPB</t>
+  </si>
+  <si>
+    <t>LM2937ET-3.3-ND</t>
+  </si>
+  <si>
+    <t>IC</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="2">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -264,6 +331,11 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -293,7 +365,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -325,6 +397,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -342,6 +429,211 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>695520</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>144000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>703080</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>144000</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="2" name="Ink 1"/>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="695520" y="3252960"/>
+            <a:ext cx="7560" cy="0"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="2" name="Ink 1"/>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill/>
+          <xdr:spPr/>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1369440</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>7200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1385280</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>15480</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="4" name="Ink 3"/>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1369440" y="1653120"/>
+            <a:ext cx="15840" cy="8280"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="Ink 3"/>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1361160" y="1649160"/>
+              <a:ext cx="31320" cy="20160"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/ink/ink1.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2016-04-25T14:28:14.044"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.06667" units="cm"/>
+      <inkml:brushProperty name="height" value="0.06667" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">484 2260 3555,'0'0'3075,"19"15"-224,-19-15-193,0 0-3010,0 0-1249,0 0-1090,0 0-160,0-24 97</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2016-04-25T14:28:15.009"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.06667" units="cm"/>
+      <inkml:brushProperty name="height" value="0.06667" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:traceGroup>
+    <inkml:annotationXML>
+      <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+        <emma:interpretation id="{EBD0B5A5-91C7-453D-A1A5-C117B7FACD43}" emma:medium="tactile" emma:mode="ink">
+          <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="writingRegion" rotatedBoundingBox="3804,4592 3847,4592 3847,4614 3804,4614"/>
+        </emma:interpretation>
+      </emma:emma>
+    </inkml:annotationXML>
+    <inkml:traceGroup>
+      <inkml:annotationXML>
+        <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+          <emma:interpretation id="{C3386114-F52D-46EF-B55D-68FB769F2D88}" emma:medium="tactile" emma:mode="ink">
+            <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="paragraph" rotatedBoundingBox="3804,4592 3847,4592 3847,4614 3804,4614" alignmentLevel="1"/>
+          </emma:interpretation>
+        </emma:emma>
+      </inkml:annotationXML>
+      <inkml:traceGroup>
+        <inkml:annotationXML>
+          <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+            <emma:interpretation id="{704DB254-1B9B-410D-A7A9-03D3DA445FDF}" emma:medium="tactile" emma:mode="ink">
+              <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="line" rotatedBoundingBox="3804,4592 3847,4592 3847,4614 3804,4614"/>
+            </emma:interpretation>
+          </emma:emma>
+        </inkml:annotationXML>
+        <inkml:traceGroup>
+          <inkml:annotationXML>
+            <emma:emma xmlns:emma="http://www.w3.org/2003/04/emma" version="1.0">
+              <emma:interpretation id="{D62E94FF-5818-4D21-B585-BD799A8D005A}" emma:medium="tactile" emma:mode="ink">
+                <msink:context xmlns:msink="http://schemas.microsoft.com/ink/2010/main" type="inkWord" rotatedBoundingBox="3804,4592 3847,4592 3847,4614 3804,4614"/>
+              </emma:interpretation>
+              <emma:one-of disjunction-type="recognition" id="oneOf0">
+                <emma:interpretation id="interp0" emma:lang="en-US" emma:confidence="0">
+                  <emma:literal>j</emma:literal>
+                </emma:interpretation>
+                <emma:interpretation id="interp1" emma:lang="en-US" emma:confidence="0">
+                  <emma:literal>~</emma:literal>
+                </emma:interpretation>
+                <emma:interpretation id="interp2" emma:lang="en-US" emma:confidence="0">
+                  <emma:literal>•</emma:literal>
+                </emma:interpretation>
+                <emma:interpretation id="interp3" emma:lang="en-US" emma:confidence="0">
+                  <emma:literal>b</emma:literal>
+                </emma:interpretation>
+                <emma:interpretation id="interp4" emma:lang="en-US" emma:confidence="0">
+                  <emma:literal>3</emma:literal>
+                </emma:interpretation>
+              </emma:one-of>
+            </emma:emma>
+          </inkml:annotationXML>
+          <inkml:trace contextRef="#ctx0" brushRef="#br0">1000 1148 993,'0'0'2787,"-2"19"-161,2-19 33,-23-6-2211,23 6-224,0 0-192,-18 0-352,18 0-289,0 0-1120,0 0-866,0 0-159,0-16 992</inkml:trace>
+        </inkml:traceGroup>
+      </inkml:traceGroup>
+    </inkml:traceGroup>
+  </inkml:traceGroup>
+</inkml:ink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -641,26 +933,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1"/>
-    <col min="2" max="12" width="13.7109375" customWidth="1"/>
-    <col min="13" max="13" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="37" customWidth="1"/>
+    <col min="2" max="12" width="13.6640625" customWidth="1"/>
+    <col min="13" max="13" width="22.6640625" customWidth="1"/>
     <col min="14" max="14" width="55" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -704,7 +996,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>20</v>
       </c>
@@ -746,7 +1038,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>30</v>
       </c>
@@ -785,7 +1077,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>35</v>
       </c>
@@ -818,7 +1110,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
         <v>55</v>
       </c>
@@ -848,7 +1140,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -880,7 +1172,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>42</v>
       </c>
@@ -919,153 +1211,401 @@
         <v>48</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="17"/>
       <c r="C10" s="8">
         <f>SUM(D3:D6)</f>
         <v>20.88448</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="8"/>
+    </row>
+    <row r="12" spans="1:14" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="12" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I13" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="K13" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="L13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C14" s="22">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="21">
+        <v>25523</v>
+      </c>
+      <c r="J14" s="13">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="22">
+        <v>0.4</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="G15" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H15" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="J15" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="22">
+        <v>0.35</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="21">
+        <v>81509</v>
+      </c>
+      <c r="J16" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="22"/>
+      <c r="D17" s="13">
+        <v>0</v>
+      </c>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="J17" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="22"/>
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+      <c r="G18" s="21"/>
+      <c r="H18" s="21"/>
+      <c r="J18" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="22">
+        <v>0.22</v>
+      </c>
+      <c r="D19" s="13">
+        <v>0</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="21">
+        <v>94035</v>
+      </c>
+      <c r="J19" s="13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="22">
+        <v>0.17</v>
+      </c>
+      <c r="D20" s="13">
+        <v>0</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="G20" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="21" t="s">
+        <v>75</v>
+      </c>
+      <c r="J20" s="13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" s="13" customFormat="1" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="21" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="22">
+        <v>1.17</v>
+      </c>
+      <c r="D21" s="13">
+        <v>0</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" s="13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" s="12" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B23" s="23">
+        <v>0</v>
+      </c>
+      <c r="C23" s="8"/>
+    </row>
+    <row r="25" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+      <c r="I25" s="2"/>
+      <c r="J25" s="2"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B26" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C26" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D26" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E26" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="F13" s="12"/>
-      <c r="G13" s="12"/>
-    </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="F26" s="18"/>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="3">
+      <c r="B27" s="3">
         <v>1.99</v>
       </c>
-      <c r="C14">
-        <f>B14*D14</f>
+      <c r="C27">
+        <f>B27*D27</f>
         <v>1.99</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D27" s="3">
         <v>1</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
+      <c r="B28">
         <v>4.79</v>
       </c>
-      <c r="C15">
-        <f>B15*D15</f>
+      <c r="C28">
+        <f>B28*D28</f>
         <v>14.370000000000001</v>
       </c>
-      <c r="D15">
+      <c r="D28">
         <v>3</v>
       </c>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="E28" s="20"/>
+      <c r="F28" s="20"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
+      <c r="B29">
         <v>0.09</v>
       </c>
-      <c r="C16">
-        <f>B16*D16</f>
+      <c r="C29">
+        <f>B29*D29</f>
         <v>5.76</v>
       </c>
-      <c r="D16">
+      <c r="D29">
         <v>64</v>
       </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="E29" s="20"/>
+      <c r="F29" s="20"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>17</v>
       </c>
-      <c r="B17">
+      <c r="B30">
         <v>21.99</v>
       </c>
-      <c r="C17">
-        <f>B17*D17</f>
+      <c r="C30">
+        <f>B30*D30</f>
         <v>21.99</v>
       </c>
-      <c r="D17">
+      <c r="D30">
         <v>1</v>
       </c>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="11" t="s">
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="8">
-        <f>C10+SUM(C14:C17)+C7+C8</f>
+      <c r="B32" s="17"/>
+      <c r="C32" s="8">
+        <f>C10+SUM(C27:C30)+C7+C8</f>
         <v>84.759479999999996</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="12" t="s">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="18" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="10" t="s">
+      <c r="B33" s="18"/>
+      <c r="C33" s="10" t="s">
         <v>54</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A19:B19"/>
+    <mergeCell ref="A32:B32"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="E13:G13"/>
-    <mergeCell ref="E14:G14"/>
-    <mergeCell ref="E15:G15"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="E30:G30"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E3" r:id="rId1" display="http://www.digikey.com/Suppliers/us/Stackpole-Electronics.page?lang=en"/>
@@ -1075,5 +1615,6 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId5"/>
+  <drawing r:id="rId6"/>
 </worksheet>
 </file>